--- a/planilhas/planilha.xlsx
+++ b/planilhas/planilha.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,15 +421,603 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Game-based exercises for dynamic short-sitting balance rehabilitation of people with chronic spinal cord and traumatic brain injuries</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>https://academic.oup.com/ptj/article-abstract/87/10/1389/2742281</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Towards a chatbot for digital counselling</t>
+          <t>Video game–based exercises for balance rehabilitation: a single-subject design</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.scienceopen.com/hosted-document?doi=10.14236/ewic/HCI2017.24</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S000399930600356X</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Usual and virtual reality video game-based physiotherapy for children and youth with acquired brain injuries</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.tandfonline.com/doi/abs/10.3109/01942638.2011.616266</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Virtual reality game-based therapy for treatment of postural and co-ordination abnormalities secondary to TBI: a pilot study</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.tandfonline.com/doi/abs/10.3109/02699052.2014.888593</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A game system for cognitive rehabilitation</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.hindawi.com/journals/bmri/2015/493562/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Development and evaluation of low cost game-based balance rehabilitation tool using the Microsoft Kinect sensor</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/6090521/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Study on the effectiveness of virtual reality game-based training on balance and functional performance in individuals with paraplegia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://meridian.allenpress.com/tscir/article-abstract/23/3/263/85734</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Virtual reality game-based therapy for persons with TBI: A pilot study</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/6662109/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Requirements for Game Based Cognitive Intervention System for Acquired Brain Injury.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=20102283&amp;AN=85867388&amp;h=WFZblSBo0rKYUIYmvDRP5HWvXFkurZXdBl%2Fzlzmbc827Za7E%2FNV5clEUd59d3YlBVk6wBeZjXmurQDKbTDOrUg%3D%3D&amp;crl=c</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Game-based collaborative training for arm rehabilitation of MS patients: a proof-of-concept game</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.academia.edu/download/5402550/gamedays2010_5b1_5d.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Development of an interactive game-based rehabilitation tool for dynamic balance training</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.tandfonline.com/doi/abs/10.1310/tsr1705-345</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Game design for acquired brain injury cognitive rehabilitation: a conceptual framework</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/chapter/10.1007/978-3-319-02958-0_21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Evaluation of a Game Based Tele Rehabilitation Platform for In‐Home Therapy of Hand‐Arm Function Post Stroke: Feasibility Study</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/pmrj.12354</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>… systematic review and meta-analysis of the efficacy of custom game based virtual rehabilitation in improving physical functioning of patients with acquired brain injury</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://content.iospress.com/articles/technology-and-disability/tad170184</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Designing Game-Based Rehabilitation Experiences for People with Aphasia</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/abs/10.1145/3474697</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A low-cost game framework for a home-based stroke rehabilitation system</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/6297212/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Swallowing training combined with game-based biofeedback in poststroke dysphagia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S193414821600006X</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mobile game-based virtual reality rehabilitation program for upper limb dysfunction after ischemic stroke</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://content.iospress.com/articles/restorative-neurology-and-neuroscience/rnn150626</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Initial usability assessment of off-the-shelf video game consoles for clinical game-based motor rehabilitation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.tandfonline.com/doi/abs/10.1179/108331909X12488667117258</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Video game-based and conventional therapies in patients of neurological deficits: an experimental study</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/17483107.2019.1679266</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Investigating therapists' intention to use serious games for acquired brain injury cognitive rehabilitation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S1319157815000154</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Effects of a game-based virtual reality video capture training program plus occupational therapy on manual dexterity in patients with multiple sclerosis: a …</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.hindawi.com/journals/jhe/2019/9780587/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Evaluation of a new serious game based multitasking assessment tool for cognition and activities of daily living: Comparison with a real cooking task</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S0747563217300225</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Designing informed game-based rehabilitation tasks leveraging advances in virtual reality</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.tandfonline.com/doi/abs/10.3109/09638288.2012.670029</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Game-based virtual rehabilitation system for upper extremity using low-cost camera</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/7399505/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A speech therapy game application for aphasia patient neurorehabilitation–a pilot study of an mHealth app</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://manuelgarcia.info/publication/speech-therapy-game</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Effect of game based balance exercises on rehabilitation after knee surgery: a controlled observational study</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s10916-019-1271-z</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Opportunities in game-based stroke rehabilitation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/7118436/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A game-based rehabilitation therapy for post-stroke patients: An approach for improving patient motivation and engagement</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/9234735/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Game-based digital interventions for depression therapy: a systematic review and meta-analysis</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.liebertpub.com/doi/abs/10.1089/cyber.2013.0481</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A task-specific interactive game-based virtual reality rehabilitation system for patients with stroke: a usability test and two clinical experiments</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://jneuroengrehab.biomedcentral.com/articles/10.1186/1743-0003-11-32?report=reader</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Developing and evaluating effectiveness of 3D game-based rehabilitation system for Total Knee Replacement Rehabilitation patients</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1007/s11042-015-2820-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>The use and effect of video game design theory in the creation of game-based systems for upper limb stroke rehabilitation</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://journals.sagepub.com/doi/pdf/10.1177/2055668316643644</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>A systematic review on serious games in attention rehabilitation and their effects</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.hindawi.com/journals/bn/2022/2017975/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Effects of interactive video-game–based exercise on balance in older adults with mild-to-moderate Parkinson's disease</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://link.springer.com/article/10.1186/s12984-020-00725-y</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Not just for children: game-based learning for older adults</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://books.google.com.br/books?hl=pt-BR&amp;lr=&amp;id=L5B9MJjHXQYC&amp;oi=fnd&amp;pg=PA102&amp;dq=+game-based+AND+brain+AND+injury+AND+recovery+AND+exercises&amp;ots=mJCfgjAakx&amp;sig=oHbQj1h5iCkKT4BZhwu018_mRL8</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Patient engagement is related to impairment reduction during digital game-based therapy in stroke</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.liebertpub.com/doi/abs/10.1089/g4h.2016.0108</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>An interactive game-based shoulder wheel system for rehabilitation</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.tandfonline.com/doi/abs/10.2147/PPA.S37190</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Video-game based therapy performed by children with cerebral palsy: a cross-over randomized controlled trial and a cross-sectional quantitative measure of …</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.researchgate.net/profile/Daniela-Morelli-4/publication/272081076_Video-game_based_therapy_performed_by_children_with_cerebral_palsy_A_cross-over_randomized_controlled_trial_and_a_cross-sectional_quantitative_measure_of_physical_activity/links/54f476760cf299c8d9e770e1/Video-game-based-therapy-performed-by-children-with-cerebral-palsy-A-cross-over-randomized-controlled-trial-and-a-cross-sectional-quantitative-measure-of-physical-activity.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Game-based virtual reality interventions to improve upper limb motor function and quality of life after stroke: Systematic review and meta-analysis</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.liebertpub.com/doi/abs/10.1089/g4h.2019.0043</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Comparison of the effects of physiotherapy alone and video game-based therapy plus physiotherapy on depression and muscle strength in post-stroke patients</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.medicalandresearch.com/assets/articles/documents/DOCUMENT_20220204145350.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>A motion-sensing game-based therapy to foster the learning of children with sensory integration dysfunction</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.jstor.org/stable/pdf/jeductechsoci.19.1.4.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Poster 9: Motivating, game-based stroke rehabilitation: a pilot study1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.archives-pmr.org/article/S0003-9993(03)00825-6/abstract</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Game based monitoring and cognitive therapy for elderly</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://books.google.com.br/books?hl=pt-BR&amp;lr=&amp;id=4dfDAQAAQBAJ&amp;oi=fnd&amp;pg=PA116&amp;dq=+game-based+AND+brain+AND+injury+AND+recovery+AND+exercises&amp;ots=ztixhmT9j3&amp;sig=nXe87_c1XbbN_G4z9lPQsg5a3pY</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A game based assistive tool for rehabilitation of dysphonic patients</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/7155403/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Design science paradigm in the development of serious game for cognitive rehabilitation</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://core.ac.uk/download/pdf/207562936.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Leap motion controller video game-based therapy for upper extremity motor recovery in patients with central nervous system diseases. a systematic review with meta …</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.mdpi.com/1034928</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Towards model-game-based rehabilitation information system</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/abs/10.1145/2676690.2676693</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Game-based enhancement for rehabilitation based on action recognition using kinect</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/abstract/document/8650226/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A game-based approach for motoric stroke rehabilitation: defining the requirements</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.diva-portal.org/smash/record.jsf?pid=diva2:1357882</t>
         </is>
       </c>
     </row>
